--- a/data/trans_dic/P17A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus</t>
+          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,12 +602,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,17 +617,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 18,31</t>
+          <t>5,45; 18,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,73</t>
+          <t>0,0; 5,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 17,51</t>
+          <t>7,44; 16,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 33,43</t>
+          <t>1,37; 8,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,39</t>
+          <t>7,48; 15,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 25,94</t>
+          <t>0,98; 4,76</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,88</t>
+          <t>4,22; 11,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,85</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,4</t>
+          <t>4,81; 11,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 23,8</t>
+          <t>0,52; 5,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,69</t>
+          <t>5,37; 10,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,97</t>
+          <t>0,44; 2,63</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,54</t>
+          <t>3,94; 9,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 16,19</t>
+          <t>0,38; 3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 12,36</t>
+          <t>6,24; 12,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 20,65</t>
+          <t>0,87; 3,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,01</t>
+          <t>5,7; 10,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,03</t>
+          <t>0,95; 3,1</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,3</t>
+          <t>4,63; 10,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,73</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 15,8</t>
+          <t>8,42; 15,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 19,78</t>
+          <t>0,66; 4,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,72</t>
+          <t>7,34; 11,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 11,79</t>
+          <t>0,49; 2,22</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,42</t>
+          <t>2,24; 7,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,39</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 15,31</t>
+          <t>6,69; 14,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 22,12</t>
+          <t>0,75; 4,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,78</t>
+          <t>4,96; 9,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 12,61</t>
+          <t>0,6; 3,03</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 16,88</t>
+          <t>7,22; 16,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,6; 56,63</t>
+          <t>3,15; 15,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,38; 26,04</t>
+          <t>16,43; 26,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,25; 31,61</t>
+          <t>1,97; 8,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,8; 20,54</t>
+          <t>13,83; 20,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,86; 36,27</t>
+          <t>3,15; 9,57</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,31</t>
+          <t>6,21; 9,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 16,73</t>
+          <t>1,13; 3,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,79; 13,98</t>
+          <t>10,83; 14,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,48</t>
+          <t>1,84; 3,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,09</t>
+          <t>8,82; 11,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,43; 15,0</t>
+          <t>1,69; 3,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7913</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53316</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16110</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>103317</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27812; 94204</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26915</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34442; 75581</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6414; 38465</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>72752; 150564</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9520; 46244</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39831</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41467</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10579</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>81298</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13386</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23761; 67076</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14461</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24938; 60482</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2717; 26868</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>58093; 113779</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4820; 28773</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42467</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10468</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62490</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14399</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>104957</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24867</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26646; 64920</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2570; 25568</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43294; 87031</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6176; 28378</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>78146; 137317</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13241; 43290</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43708</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>82493</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13147</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>126201</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15607</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>29538; 69333</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13098</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>58891; 107601</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4497; 27817</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>98129; 158409</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6513; 29561</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21357</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>51045</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10828</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>72403</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15316</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11479; 36579</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14378</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33616; 72696</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3832; 24244</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50329; 98723</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6028; 30401</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>62905</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>37878</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>150704</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30429</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>213609</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>68307</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>39097; 89853</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17170; 84540</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>118217; 187806</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>14173; 59962</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>174332; 259828</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39797; 120831</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>260268</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>66013</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>441517</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>95492</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>701785</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>161505</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>213630; 324975</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>38961; 117106</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>389457; 510859</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>66548; 132394</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>621042; 788389</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>119615; 215145</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>